--- a/Nuno-dataset/ph-as-input/test-solidos-00/content/results/metrics_2_7.xlsx
+++ b/Nuno-dataset/ph-as-input/test-solidos-00/content/results/metrics_2_7.xlsx
@@ -478,559 +478,559 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_2_7_0</t>
+          <t>model_2_7_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9714518633803135</v>
+        <v>0.9735302659487451</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9794295336019749</v>
+        <v>0.914985832995417</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9847012765334976</v>
+        <v>0.9162931109510041</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9810663322615265</v>
+        <v>0.917003051648597</v>
       </c>
       <c r="F2" t="n">
-        <v>3.44291377598838</v>
+        <v>3.192257807431467</v>
       </c>
       <c r="G2" t="n">
-        <v>3.352122224033586</v>
+        <v>11.8566552488194</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9761447587381511</v>
+        <v>8.950469229650569</v>
       </c>
       <c r="I2" t="n">
-        <v>2.234015183849306</v>
+        <v>10.48903930983894</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_2_7_1</t>
+          <t>model_2_7_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9750423582259018</v>
+        <v>0.9737900346362308</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9768441825677112</v>
+        <v>0.9158012232914017</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9818609817717381</v>
+        <v>0.9172715962389163</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9784532145800887</v>
+        <v>0.9178690545348773</v>
       </c>
       <c r="F3" t="n">
-        <v>3.009899028610203</v>
+        <v>3.160929626379597</v>
       </c>
       <c r="G3" t="n">
-        <v>3.773425878077907</v>
+        <v>11.7429353598484</v>
       </c>
       <c r="H3" t="n">
-        <v>1.15737156834966</v>
+        <v>8.845843403023586</v>
       </c>
       <c r="I3" t="n">
-        <v>2.542341317916535</v>
+        <v>10.37959506523648</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_2_7_2</t>
+          <t>model_2_7_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9777626359219935</v>
+        <v>0.974074016374483</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9742695420472143</v>
+        <v>0.9166983622725982</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9784941629824451</v>
+        <v>0.9183506087303057</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9757139243907426</v>
+        <v>0.918822777078437</v>
       </c>
       <c r="F4" t="n">
-        <v>2.681832728551601</v>
+        <v>3.126681344196325</v>
       </c>
       <c r="G4" t="n">
-        <v>4.192984168136115</v>
+        <v>11.61781424197931</v>
       </c>
       <c r="H4" t="n">
-        <v>1.372193577649033</v>
+        <v>8.730468572919262</v>
       </c>
       <c r="I4" t="n">
-        <v>2.865554757620753</v>
+        <v>10.25906493191492</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_2_7_3</t>
+          <t>model_2_7_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.979796189186414</v>
+        <v>0.9743839783856015</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9717495803582004</v>
+        <v>0.9176846213117951</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9747966130799613</v>
+        <v>0.9195397913747663</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9729304891680665</v>
+        <v>0.9198724732533931</v>
       </c>
       <c r="F5" t="n">
-        <v>2.436585599411444</v>
+        <v>3.089299833370254</v>
       </c>
       <c r="G5" t="n">
-        <v>4.603632104746234</v>
+        <v>11.48026383331436</v>
       </c>
       <c r="H5" t="n">
-        <v>1.608118095494272</v>
+        <v>8.603313654266762</v>
       </c>
       <c r="I5" t="n">
-        <v>3.193976943781954</v>
+        <v>10.12640578406428</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_2_7_4</t>
+          <t>model_2_7_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9812896689026022</v>
+        <v>0.9747214230588095</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9693160109708643</v>
+        <v>0.91876751271101</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9709157576284879</v>
+        <v>0.9208484586917673</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9701635620351206</v>
+        <v>0.9210262342896733</v>
       </c>
       <c r="F6" t="n">
-        <v>2.256471500984515</v>
+        <v>3.048603905313759</v>
       </c>
       <c r="G6" t="n">
-        <v>5.00020172398443</v>
+        <v>11.32923641700491</v>
       </c>
       <c r="H6" t="n">
-        <v>1.855738540211169</v>
+        <v>8.463382679818404</v>
       </c>
       <c r="I6" t="n">
-        <v>3.520451312773088</v>
+        <v>9.980595063259619</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_2_7_24</t>
+          <t>model_2_7_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9817034819188767</v>
+        <v>0.9750878293658223</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9445830647133182</v>
+        <v>0.919954769153413</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9190663755558763</v>
+        <v>0.9222875260295545</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9388850654224566</v>
+        <v>0.9222928366496776</v>
       </c>
       <c r="F7" t="n">
-        <v>2.206565528017002</v>
+        <v>3.004415195597649</v>
       </c>
       <c r="G7" t="n">
-        <v>9.030633373492808</v>
+        <v>11.16365354034444</v>
       </c>
       <c r="H7" t="n">
-        <v>5.164021264898036</v>
+        <v>8.309508511603642</v>
       </c>
       <c r="I7" t="n">
-        <v>7.211053541874192</v>
+        <v>9.820523612345907</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_2_7_23</t>
+          <t>model_2_7_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.981852755783223</v>
+        <v>0.9754843779338311</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9450349931971853</v>
+        <v>0.9212540089107064</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9201932044338756</v>
+        <v>0.9238678080168059</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9395022654823042</v>
+        <v>0.9236811174615421</v>
       </c>
       <c r="F8" t="n">
-        <v>2.188563055533439</v>
+        <v>2.956591320231137</v>
       </c>
       <c r="G8" t="n">
-        <v>8.956988008087276</v>
+        <v>10.98245270722968</v>
       </c>
       <c r="H8" t="n">
-        <v>5.092123233296762</v>
+        <v>8.140534781224224</v>
       </c>
       <c r="I8" t="n">
-        <v>7.138229072562823</v>
+        <v>9.645074607316372</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_2_7_22</t>
+          <t>model_2_7_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9820128776137541</v>
+        <v>0.9759119788504422</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9455347778485353</v>
+        <v>0.9226733355454517</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9214318087082231</v>
+        <v>0.9256005226614985</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9401828845551309</v>
+        <v>0.9252002453371605</v>
       </c>
       <c r="F9" t="n">
-        <v>2.169252315098212</v>
+        <v>2.905022522377946</v>
       </c>
       <c r="G9" t="n">
-        <v>8.875544096967101</v>
+        <v>10.78450373958602</v>
       </c>
       <c r="H9" t="n">
-        <v>5.013093301603293</v>
+        <v>7.955261988419699</v>
       </c>
       <c r="I9" t="n">
-        <v>7.057921687638008</v>
+        <v>9.453089331706364</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_2_7_21</t>
+          <t>model_2_7_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9821836182430285</v>
+        <v>0.9763710441062221</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9460869224497068</v>
+        <v>0.9242202155070322</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9227908988421262</v>
+        <v>0.9274976783897</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9409324722952039</v>
+        <v>0.9268593150869346</v>
       </c>
       <c r="F10" t="n">
-        <v>2.148660944373017</v>
+        <v>2.849659115853114</v>
       </c>
       <c r="G10" t="n">
-        <v>8.785567712734762</v>
+        <v>10.56876531548575</v>
       </c>
       <c r="H10" t="n">
-        <v>4.926375693185372</v>
+        <v>7.752406116435451</v>
       </c>
       <c r="I10" t="n">
-        <v>6.969476574093114</v>
+        <v>9.243418395981514</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_2_7_5</t>
+          <t>model_2_7_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9823602411526624</v>
+        <v>0.976861341939983</v>
       </c>
       <c r="C11" t="n">
-        <v>0.966991164748518</v>
+        <v>0.9259020146976372</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9669618812319476</v>
+        <v>0.9295704156992129</v>
       </c>
       <c r="E11" t="n">
-        <v>0.967457522477027</v>
+        <v>0.9286671901854622</v>
       </c>
       <c r="F11" t="n">
-        <v>2.127360168885109</v>
+        <v>2.790529051124883</v>
       </c>
       <c r="G11" t="n">
-        <v>5.379054032852632</v>
+        <v>10.33421013599816</v>
       </c>
       <c r="H11" t="n">
-        <v>2.108018132664228</v>
+        <v>7.530775952888392</v>
       </c>
       <c r="I11" t="n">
-        <v>3.839741454777296</v>
+        <v>9.014941646505786</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_2_7_20</t>
+          <t>model_2_7_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9823644998454535</v>
+        <v>0.9773817156262434</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9466965435976837</v>
+        <v>0.9277252447475274</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9242803488054417</v>
+        <v>0.9318302967304162</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9417572442769572</v>
+        <v>0.930632173741483</v>
       </c>
       <c r="F12" t="n">
-        <v>2.126846569266565</v>
+        <v>2.727771829630703</v>
       </c>
       <c r="G12" t="n">
-        <v>8.686225064938979</v>
+        <v>10.07993004477914</v>
       </c>
       <c r="H12" t="n">
-        <v>4.831340393130652</v>
+        <v>7.289135200708298</v>
       </c>
       <c r="I12" t="n">
-        <v>6.872160345885194</v>
+        <v>8.766609747903614</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_2_7_19</t>
+          <t>model_2_7_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9825546580109269</v>
+        <v>0.9779298656955852</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9473691967622746</v>
+        <v>0.929694775021601</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9259102649263722</v>
+        <v>0.9342887706050403</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9426638312200173</v>
+        <v>0.9327615953902633</v>
       </c>
       <c r="F13" t="n">
-        <v>2.103913437894565</v>
+        <v>2.661664768067023</v>
       </c>
       <c r="G13" t="n">
-        <v>8.576610845287238</v>
+        <v>9.805245927006794</v>
       </c>
       <c r="H13" t="n">
-        <v>4.727342560755111</v>
+        <v>7.026259647492553</v>
       </c>
       <c r="I13" t="n">
-        <v>6.765190633294305</v>
+        <v>8.497496391027997</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_2_7_18</t>
+          <t>model_2_7_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9827524921601236</v>
+        <v>0.9785019361806913</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9481105072818042</v>
+        <v>0.9318142698889389</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9276901986172834</v>
+        <v>0.9369548184507606</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9436588035559138</v>
+        <v>0.9350615111009482</v>
       </c>
       <c r="F14" t="n">
-        <v>2.080054580600162</v>
+        <v>2.592672897240337</v>
       </c>
       <c r="G14" t="n">
-        <v>8.455808359852895</v>
+        <v>9.509646724790155</v>
       </c>
       <c r="H14" t="n">
-        <v>4.613772762131797</v>
+        <v>6.741188974349662</v>
       </c>
       <c r="I14" t="n">
-        <v>6.647792180094136</v>
+        <v>8.206836230891129</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_2_7_17</t>
+          <t>model_2_7_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9829558193961625</v>
+        <v>0.9790920182241202</v>
       </c>
       <c r="C15" t="n">
-        <v>0.948926921637764</v>
+        <v>0.9340846740509849</v>
       </c>
       <c r="D15" t="n">
-        <v>0.929630424698031</v>
+        <v>0.9398371794182344</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9447494830261063</v>
+        <v>0.9375355778534525</v>
       </c>
       <c r="F15" t="n">
-        <v>2.055533255397124</v>
+        <v>2.521508827117319</v>
       </c>
       <c r="G15" t="n">
-        <v>8.322767102854675</v>
+        <v>9.193000683626053</v>
       </c>
       <c r="H15" t="n">
-        <v>4.489975405859833</v>
+        <v>6.432988736099023</v>
       </c>
       <c r="I15" t="n">
-        <v>6.519101081740727</v>
+        <v>7.894167103439476</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_2_7_6</t>
+          <t>model_2_7_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9831013273856882</v>
+        <v>0.9796915974074193</v>
       </c>
       <c r="C16" t="n">
-        <v>0.964789333696442</v>
+        <v>0.9365036492689131</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9630178313588929</v>
+        <v>0.9429413353882211</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9648439285643484</v>
+        <v>0.9401846735866956</v>
       </c>
       <c r="F16" t="n">
-        <v>2.037984948538146</v>
+        <v>2.449199399098375</v>
       </c>
       <c r="G16" t="n">
-        <v>5.737860034642641</v>
+        <v>8.855633910240332</v>
       </c>
       <c r="H16" t="n">
-        <v>2.359670737550775</v>
+        <v>6.101072775428925</v>
       </c>
       <c r="I16" t="n">
-        <v>4.148123780166668</v>
+        <v>7.55937805596911</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_2_7_16</t>
+          <t>model_2_7_0</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9831613661443995</v>
+        <v>0.9802444861292557</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9498249469292771</v>
+        <v>0.9624396333084851</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9317400635444089</v>
+        <v>0.9821355742006392</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9459429623553844</v>
+        <v>0.970942878233279</v>
       </c>
       <c r="F17" t="n">
-        <v>2.030744256362187</v>
+        <v>2.382520854632997</v>
       </c>
       <c r="G17" t="n">
-        <v>8.176426690382833</v>
+        <v>5.238424777561168</v>
       </c>
       <c r="H17" t="n">
-        <v>4.355368560574272</v>
+        <v>1.910177229606076</v>
       </c>
       <c r="I17" t="n">
-        <v>6.378280455750772</v>
+        <v>3.67219877954419</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_2_7_15</t>
+          <t>model_2_7_9</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9833646463718433</v>
+        <v>0.9802886922022972</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9508115801387735</v>
+        <v>0.9390634927000943</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9340279144184909</v>
+        <v>0.9462688317936079</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9472465492319151</v>
+        <v>0.9430051322708402</v>
       </c>
       <c r="F18" t="n">
-        <v>2.006228600409714</v>
+        <v>2.377189589062696</v>
       </c>
       <c r="G18" t="n">
-        <v>8.015646908119852</v>
+        <v>8.498620695574191</v>
       </c>
       <c r="H18" t="n">
-        <v>4.20939078377482</v>
+        <v>5.745275844894876</v>
       </c>
       <c r="I18" t="n">
-        <v>6.224468055751873</v>
+        <v>7.20293239625024</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_2_7_14</t>
+          <t>model_2_7_8</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9835595430889073</v>
+        <v>0.9808672478359243</v>
       </c>
       <c r="C19" t="n">
-        <v>0.951893662038825</v>
+        <v>0.9417513770558135</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9365018002644393</v>
+        <v>0.9498173348743632</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9486672670926494</v>
+        <v>0.9459883917421182</v>
       </c>
       <c r="F19" t="n">
-        <v>1.982723998305088</v>
+        <v>2.307415607393554</v>
       </c>
       <c r="G19" t="n">
-        <v>7.839312997395524</v>
+        <v>8.123750020751949</v>
       </c>
       <c r="H19" t="n">
-        <v>4.051542927545074</v>
+        <v>5.36584748485835</v>
       </c>
       <c r="I19" t="n">
-        <v>6.056835174648933</v>
+        <v>6.825912198673827</v>
       </c>
     </row>
     <row r="20">
@@ -1040,214 +1040,214 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9835875159510896</v>
+        <v>0.981405544521755</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9627194080910187</v>
+        <v>0.9445463676330105</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9591441899237638</v>
+        <v>0.9535765892831496</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9623447209197766</v>
+        <v>0.9491180756258895</v>
       </c>
       <c r="F20" t="n">
-        <v>1.97935046279752</v>
+        <v>2.242496866814966</v>
       </c>
       <c r="G20" t="n">
-        <v>6.075170987626271</v>
+        <v>7.733941582168569</v>
       </c>
       <c r="H20" t="n">
-        <v>2.606830887377094</v>
+        <v>4.963884261824495</v>
       </c>
       <c r="I20" t="n">
-        <v>4.443009478103594</v>
+        <v>6.430387086771431</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_2_7_13</t>
+          <t>model_2_7_1</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9837380179812498</v>
+        <v>0.9814543957031046</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9530787639466602</v>
+        <v>0.9607389167797603</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9391679439648311</v>
+        <v>0.9784321445976364</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9502122724235701</v>
+        <v>0.968474786414246</v>
       </c>
       <c r="F21" t="n">
-        <v>1.961199873151136</v>
+        <v>2.236605399799708</v>
       </c>
       <c r="G21" t="n">
-        <v>7.64619115143774</v>
+        <v>5.475618297977275</v>
       </c>
       <c r="H21" t="n">
-        <v>3.881427936913431</v>
+        <v>2.306171311842866</v>
       </c>
       <c r="I21" t="n">
-        <v>5.874537406668592</v>
+        <v>3.984112803184193</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_2_7_8</t>
+          <t>model_2_7_6</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9838781140534312</v>
+        <v>0.9818751523578542</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9607851109164995</v>
+        <v>0.9474169748864287</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9553869898638032</v>
+        <v>0.9575281875877636</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9599742874763204</v>
+        <v>0.9523686304288548</v>
       </c>
       <c r="F22" t="n">
-        <v>1.944304245135171</v>
+        <v>2.185862021964776</v>
       </c>
       <c r="G22" t="n">
-        <v>6.390380201706792</v>
+        <v>7.33358712646113</v>
       </c>
       <c r="H22" t="n">
-        <v>2.846561421371749</v>
+        <v>4.541354414697046</v>
       </c>
       <c r="I22" t="n">
-        <v>4.722700892262325</v>
+        <v>6.019586475612432</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_2_7_12</t>
+          <t>model_2_7_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9838893123543829</v>
+        <v>0.9821457312523677</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9543738347427562</v>
+        <v>0.9585242460154582</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9420297487244195</v>
+        <v>0.9743768539869582</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9518874588319011</v>
+        <v>0.9655662787918273</v>
       </c>
       <c r="F23" t="n">
-        <v>1.942953726706319</v>
+        <v>2.153230126726821</v>
       </c>
       <c r="G23" t="n">
-        <v>7.435148994527449</v>
+        <v>5.784491379572647</v>
       </c>
       <c r="H23" t="n">
-        <v>3.698828668241068</v>
+        <v>2.739788595205544</v>
       </c>
       <c r="I23" t="n">
-        <v>5.676879355218543</v>
+        <v>4.35168596569795</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_2_7_11</t>
+          <t>model_2_7_5</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9839995728311974</v>
+        <v>0.9822389784257286</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9557859571585497</v>
+        <v>0.9503202203914954</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9450884955238895</v>
+        <v>0.9616414499483918</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9536983267571626</v>
+        <v>0.955702432938206</v>
       </c>
       <c r="F24" t="n">
-        <v>1.929656280374573</v>
+        <v>2.141984489856959</v>
       </c>
       <c r="G24" t="n">
-        <v>7.205032338859766</v>
+        <v>6.92868071769276</v>
       </c>
       <c r="H24" t="n">
-        <v>3.503663387742508</v>
+        <v>4.101538425707966</v>
       </c>
       <c r="I24" t="n">
-        <v>5.463212014222614</v>
+        <v>5.598265134690693</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_2_7_9</t>
+          <t>model_2_7_3</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9840201605886428</v>
+        <v>0.9824441445936022</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9589867677253445</v>
+        <v>0.9559653201688975</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9517781832700459</v>
+        <v>0.9701462437594135</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9577410360393591</v>
+        <v>0.9623867590916715</v>
       </c>
       <c r="F25" t="n">
-        <v>1.927173390697047</v>
+        <v>2.11724138892716</v>
       </c>
       <c r="G25" t="n">
-        <v>6.683434625503864</v>
+        <v>6.141376621632698</v>
       </c>
       <c r="H25" t="n">
-        <v>3.076823616090742</v>
+        <v>3.192152159238121</v>
       </c>
       <c r="I25" t="n">
-        <v>4.986205971597104</v>
+        <v>4.753509259009163</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_2_7_10</t>
+          <t>model_2_7_4</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9840508811387415</v>
+        <v>0.9824491129920742</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9573218104455342</v>
+        <v>0.953196036825369</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9483407257448179</v>
+        <v>0.9658696676609474</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9556489113572064</v>
+        <v>0.9590660940479229</v>
       </c>
       <c r="F26" t="n">
-        <v>1.923468483208699</v>
+        <v>2.116642198592196</v>
       </c>
       <c r="G26" t="n">
-        <v>6.95475274691771</v>
+        <v>6.527599754169469</v>
       </c>
       <c r="H26" t="n">
-        <v>3.296152774760966</v>
+        <v>3.649430684488002</v>
       </c>
       <c r="I26" t="n">
-        <v>5.233059268644137</v>
+        <v>5.173170305234832</v>
       </c>
     </row>
   </sheetData>
